--- a/tabla salarial.xlsx
+++ b/tabla salarial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo.ramallo\Desktop\DRIVE GDP\REM\Actualizaciones salariales\2025\Abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{CFCFB28A-B7AC-4F4F-9AD5-12DED88903CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74D5A68-36D7-42B6-ACAD-FAF20C49CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{111C930A-305C-4247-A211-1F046E9C6196}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="TABLA Salarial" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -718,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F52C4AC-12A3-4779-BCEF-7BC3006414F7}">
   <dimension ref="A1:H995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3161,24 +3160,19 @@
         <v>47</v>
       </c>
       <c r="D94" s="11">
-        <f>+D2*$J$1</f>
-        <v>0</v>
+        <v>7120871.1028357446</v>
       </c>
       <c r="E94" s="11">
-        <f t="shared" ref="E94:H94" si="0">+E2*$J$1</f>
-        <v>0</v>
+        <v>7749183.2589683104</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8377495.4151008781</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9005807.5712334402</v>
       </c>
       <c r="H94" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9634119.727366006</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3192,24 +3186,19 @@
         <v>47</v>
       </c>
       <c r="D95" s="11">
-        <f t="shared" ref="D95:H95" si="1">+D3*$J$1</f>
-        <v>0</v>
+        <v>6192061.8285528226</v>
       </c>
       <c r="E95" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6738420.225189832</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7284778.621826848</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7831137.0184638612</v>
       </c>
       <c r="H95" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8377495.4151008781</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3223,24 +3212,19 @@
         <v>47</v>
       </c>
       <c r="D96" s="11">
-        <f t="shared" ref="D96:H96" si="2">+D4*$J$1</f>
-        <v>0</v>
+        <v>5384401.5900459299</v>
       </c>
       <c r="E96" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5859495.8479911601</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6334590.1059363894</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6809684.3638816169</v>
       </c>
       <c r="H96" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7284778.621826848</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3254,24 +3238,19 @@
         <v>47</v>
       </c>
       <c r="D97" s="11">
-        <f t="shared" ref="D97:H97" si="3">+D5*$J$1</f>
-        <v>0</v>
+        <v>5781471.2227273369</v>
       </c>
       <c r="E97" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6291601.0364973983</v>
       </c>
       <c r="F97" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6801730.8502674541</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7311860.6640375135</v>
       </c>
       <c r="H97" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7821990.477807573</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3285,24 +3264,19 @@
         <v>47</v>
       </c>
       <c r="D98" s="11">
-        <f t="shared" ref="D98:H98" si="4">+D6*$J$1</f>
-        <v>0</v>
+        <v>5027366.280632467</v>
       </c>
       <c r="E98" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5470957.4230412161</v>
       </c>
       <c r="F98" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5914548.5654499633</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6358139.7078587087</v>
       </c>
       <c r="H98" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6801730.8502674541</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3316,24 +3290,19 @@
         <v>47</v>
       </c>
       <c r="D99" s="11">
-        <f t="shared" ref="D99:H99" si="5">+D7*$J$1</f>
-        <v>0</v>
+        <v>4371622.8527238863</v>
       </c>
       <c r="E99" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4757354.2809054032</v>
       </c>
       <c r="F99" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5143085.7090869229</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5528817.1372684445</v>
       </c>
       <c r="H99" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5914548.5654499633</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3347,24 +3316,19 @@
         <v>47</v>
       </c>
       <c r="D100" s="11">
-        <f t="shared" ref="D100:H100" si="6">+D8*$J$1</f>
-        <v>0</v>
+        <v>5080467.836971648</v>
       </c>
       <c r="E100" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5528744.410822087</v>
       </c>
       <c r="F100" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5977020.9846725259</v>
       </c>
       <c r="G100" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6425297.5585229658</v>
       </c>
       <c r="H100" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6873574.1323734066</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3378,24 +3342,19 @@
         <v>47</v>
       </c>
       <c r="D101" s="11">
-        <f t="shared" ref="D101:H101" si="7">+D9*$J$1</f>
-        <v>0</v>
+        <v>4417798.1191057796</v>
       </c>
       <c r="E101" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4807603.8354974687</v>
       </c>
       <c r="F101" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5197409.5518891541</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5587215.2682808414</v>
       </c>
       <c r="H101" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5977020.9846725259</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3409,24 +3368,19 @@
         <v>47</v>
       </c>
       <c r="D102" s="11">
-        <f t="shared" ref="D102:H102" si="8">+D10*$J$1</f>
-        <v>0</v>
+        <v>3841563.5818311144</v>
       </c>
       <c r="E102" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4180525.0743456236</v>
       </c>
       <c r="F102" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4519486.5668601338</v>
       </c>
       <c r="G102" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4858448.0593746444</v>
       </c>
       <c r="H102" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5197409.5518891541</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3440,24 +3394,19 @@
         <v>47</v>
       </c>
       <c r="D103" s="11">
-        <f t="shared" ref="D103:H103" si="9">+D11*$J$1</f>
-        <v>0</v>
+        <v>4651764.7317694211</v>
       </c>
       <c r="E103" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5062214.5610431945</v>
       </c>
       <c r="F103" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5472664.390316966</v>
       </c>
       <c r="G103" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5883114.2195907375</v>
       </c>
       <c r="H103" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6293564.0488645127</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3471,24 +3420,19 @@
         <v>47</v>
       </c>
       <c r="D104" s="11">
-        <f t="shared" ref="D104:H104" si="10">+D12*$J$1</f>
-        <v>0</v>
+        <v>4045012.8102342794</v>
       </c>
       <c r="E104" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4401925.7052549515</v>
       </c>
       <c r="F104" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4758838.6002756236</v>
       </c>
       <c r="G104" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5115751.4952962957</v>
       </c>
       <c r="H104" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5472664.390316966</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3502,24 +3446,19 @@
         <v>47</v>
       </c>
       <c r="D105" s="11">
-        <f t="shared" ref="D105:H105" si="11">+D13*$J$1</f>
-        <v>0</v>
+        <v>3517402.4436819823</v>
       </c>
       <c r="E105" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3827761.4828303931</v>
       </c>
       <c r="F105" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4138120.5219788039</v>
       </c>
       <c r="G105" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4448479.5611272128</v>
       </c>
       <c r="H105" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4758838.6002756236</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3533,24 +3472,19 @@
         <v>47</v>
       </c>
       <c r="D106" s="11">
-        <f t="shared" ref="D106:H106" si="12">+D14*$J$1</f>
-        <v>0</v>
+        <v>3684921.1513517727</v>
       </c>
       <c r="E106" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4010061.2529416373</v>
       </c>
       <c r="F106" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4335201.3545314986</v>
       </c>
       <c r="G106" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4660341.4561213609</v>
       </c>
       <c r="H106" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4985481.5577112222</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3564,24 +3498,19 @@
         <v>47</v>
       </c>
       <c r="D107" s="11">
-        <f t="shared" ref="D107:H107" si="13">+D15*$J$1</f>
-        <v>0</v>
+        <v>3204279.2620450207</v>
       </c>
       <c r="E107" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3487009.7851666412</v>
       </c>
       <c r="F107" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3769740.3082882604</v>
       </c>
       <c r="G107" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4052470.8314098795</v>
       </c>
       <c r="H107" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4335201.3545314986</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3595,24 +3524,19 @@
         <v>47</v>
       </c>
       <c r="D108" s="11">
-        <f t="shared" ref="D108:H108" si="14">+D16*$J$1</f>
-        <v>0</v>
+        <v>2786329.7930826265</v>
       </c>
       <c r="E108" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3032182.4218840348</v>
       </c>
       <c r="F108" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3278035.0506854439</v>
       </c>
       <c r="G108" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3523887.6794868531</v>
       </c>
       <c r="H108" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3769740.3082882599</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3626,24 +3550,19 @@
         <v>47</v>
       </c>
       <c r="D109" s="11">
-        <f t="shared" ref="D109:H109" si="15">+D17*$J$1</f>
-        <v>0</v>
+        <v>4223061.6265671942</v>
       </c>
       <c r="E109" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4595684.7112643011</v>
       </c>
       <c r="F109" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4968307.795961407</v>
       </c>
       <c r="G109" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5340930.8806585129</v>
       </c>
       <c r="H109" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5713553.9653556198</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3657,24 +3576,19 @@
         <v>47</v>
       </c>
       <c r="D110" s="11">
-        <f t="shared" ref="D110:H110" si="16">+D18*$J$1</f>
-        <v>0</v>
+        <v>3672227.5013627787</v>
       </c>
       <c r="E110" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3996247.5750124352</v>
       </c>
       <c r="F110" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4320267.6486620922</v>
       </c>
       <c r="G110" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4644287.7223117501</v>
       </c>
       <c r="H110" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4968307.795961407</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3688,24 +3602,19 @@
         <v>47</v>
       </c>
       <c r="D111" s="11">
-        <f t="shared" ref="D111:H111" si="17">+D19*$J$1</f>
-        <v>0</v>
+        <v>3193241.3055328508</v>
       </c>
       <c r="E111" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3474997.8913151613</v>
       </c>
       <c r="F111" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3756754.4770974731</v>
       </c>
       <c r="G111" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4038511.0628797822</v>
       </c>
       <c r="H111" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4320267.6486620922</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3719,24 +3628,19 @@
         <v>47</v>
       </c>
       <c r="D112" s="11">
-        <f t="shared" ref="D112:H112" si="18">+D20*$J$1</f>
-        <v>0</v>
+        <v>3750171.4182433821</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4081068.8963236813</v>
       </c>
       <c r="F112" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4411966.3744039787</v>
       </c>
       <c r="G112" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4742863.8524842784</v>
       </c>
       <c r="H112" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5073761.3305645762</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3750,24 +3654,19 @@
         <v>47</v>
       </c>
       <c r="D113" s="11">
-        <f t="shared" ref="D113:H113" si="19">+D21*$J$1</f>
-        <v>0</v>
+        <v>3261018.6245594625</v>
       </c>
       <c r="E113" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3548755.5620205919</v>
       </c>
       <c r="F113" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3836492.4994817208</v>
       </c>
       <c r="G113" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4124229.4369428507</v>
       </c>
       <c r="H113" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4411966.3744039787</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3781,24 +3680,19 @@
         <v>47</v>
       </c>
       <c r="D114" s="11">
-        <f t="shared" ref="D114:H114" si="20">+D22*$J$1</f>
-        <v>0</v>
+        <v>2835668.369182142</v>
       </c>
       <c r="E114" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3085874.4017570368</v>
       </c>
       <c r="F114" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3336080.4343319312</v>
       </c>
       <c r="G114" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3586286.4669068265</v>
       </c>
       <c r="H114" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3836492.4994817204</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3812,24 +3706,19 @@
         <v>47</v>
       </c>
       <c r="D115" s="11">
-        <f t="shared" ref="D115:H115" si="21">+D23*$J$1</f>
-        <v>0</v>
+        <v>3277281.2099195686</v>
       </c>
       <c r="E115" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3566453.0813830593</v>
       </c>
       <c r="F115" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3855624.9528465518</v>
       </c>
       <c r="G115" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4144796.8243100438</v>
       </c>
       <c r="H115" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4433968.6957735345</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3843,24 +3732,19 @@
         <v>47</v>
       </c>
       <c r="D116" s="11">
-        <f t="shared" ref="D116:H116" si="22">+D24*$J$1</f>
-        <v>0</v>
+        <v>2849809.7477561473</v>
       </c>
       <c r="E116" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3101263.5490287482</v>
       </c>
       <c r="F116" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3352717.3503013505</v>
       </c>
       <c r="G116" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3604171.15157395</v>
       </c>
       <c r="H116" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3855624.9528465518</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3874,24 +3758,19 @@
         <v>47</v>
       </c>
       <c r="D117" s="11">
-        <f t="shared" ref="D117:H117" si="23">+D25*$J$1</f>
-        <v>0</v>
+        <v>2478095.4328314317</v>
       </c>
       <c r="E117" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2696750.9121989114</v>
       </c>
       <c r="F117" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2915406.3915663902</v>
       </c>
       <c r="G117" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3134061.8709338694</v>
       </c>
       <c r="H117" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3352717.3503013477</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3905,24 +3784,19 @@
         <v>47</v>
       </c>
       <c r="D118" s="11">
-        <f t="shared" ref="D118:H118" si="24">+D26*$J$1</f>
-        <v>0</v>
+        <v>4076929.1187719689</v>
       </c>
       <c r="E118" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4436658.1586636128</v>
       </c>
       <c r="F118" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4796387.1985552572</v>
       </c>
       <c r="G118" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>5156116.2384469016</v>
       </c>
       <c r="H118" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>5515845.2783385459</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3936,24 +3810,19 @@
         <v>47</v>
       </c>
       <c r="D119" s="11">
-        <f t="shared" ref="D119:H119" si="25">+D27*$J$1</f>
-        <v>0</v>
+        <v>3545155.7554538855</v>
       </c>
       <c r="E119" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3857963.6162292282</v>
       </c>
       <c r="F119" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4170771.4770045714</v>
       </c>
       <c r="G119" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4483579.3377799159</v>
       </c>
       <c r="H119" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4796387.1985552572</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3967,24 +3836,19 @@
         <v>47</v>
       </c>
       <c r="D120" s="11">
-        <f t="shared" ref="D120:H120" si="26">+D28*$J$1</f>
-        <v>0</v>
+        <v>3082744.1351772929</v>
       </c>
       <c r="E120" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3354750.9706341135</v>
       </c>
       <c r="F120" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3626757.8060909323</v>
       </c>
       <c r="G120" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3898764.6415477521</v>
       </c>
       <c r="H120" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4170771.4770045714</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3998,24 +3862,19 @@
         <v>47</v>
       </c>
       <c r="D121" s="11">
-        <f t="shared" ref="D121:H121" si="27">+D29*$J$1</f>
-        <v>0</v>
+        <v>2680647.0740672098</v>
       </c>
       <c r="E121" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2917174.7570731416</v>
       </c>
       <c r="F121" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3153702.440079072</v>
       </c>
       <c r="G121" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3390230.1230850015</v>
       </c>
       <c r="H121" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3626757.8060909309</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4029,24 +3888,19 @@
         <v>47</v>
       </c>
       <c r="D122" s="11">
-        <f t="shared" ref="D122:H122" si="28">+D30*$J$1</f>
-        <v>0</v>
+        <v>3771159.4348640726</v>
       </c>
       <c r="E122" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4103908.7967638434</v>
       </c>
       <c r="F122" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4436658.1586636128</v>
       </c>
       <c r="G122" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4769407.5205633845</v>
       </c>
       <c r="H122" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <v>5102156.8824631544</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4060,24 +3914,19 @@
         <v>47</v>
       </c>
       <c r="D123" s="11">
-        <f t="shared" ref="D123:H123" si="29">+D31*$J$1</f>
-        <v>0</v>
+        <v>3279269.0737948441</v>
       </c>
       <c r="E123" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3568616.3450120375</v>
       </c>
       <c r="F123" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3857963.6162292282</v>
       </c>
       <c r="G123" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4147310.8874464212</v>
       </c>
       <c r="H123" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4436658.1586636128</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4091,24 +3940,19 @@
         <v>47</v>
       </c>
       <c r="D124" s="11">
-        <f t="shared" ref="D124:H124" si="30">+D32*$J$1</f>
-        <v>0</v>
+        <v>2851538.3250389951</v>
       </c>
       <c r="E124" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3103144.6478365543</v>
       </c>
       <c r="F124" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3354750.9706341135</v>
       </c>
       <c r="G124" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3606357.2934316704</v>
       </c>
       <c r="H124" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3857963.6162292282</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4122,24 +3966,19 @@
         <v>47</v>
       </c>
       <c r="D125" s="11">
-        <f t="shared" ref="D125:H125" si="31">+D33*$J$1</f>
-        <v>0</v>
+        <v>2479598.5435121697</v>
       </c>
       <c r="E125" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2698386.6502926564</v>
       </c>
       <c r="F125" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2917174.7570731416</v>
       </c>
       <c r="G125" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3135962.863853626</v>
       </c>
       <c r="H125" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3354750.9706341117</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4153,24 +3992,19 @@
         <v>47</v>
       </c>
       <c r="D126" s="11">
-        <f t="shared" ref="D126:H126" si="32">+D34*$J$1</f>
-        <v>0</v>
+        <v>2709164.5362256728</v>
       </c>
       <c r="E126" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2948208.4658926437</v>
       </c>
       <c r="F126" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3187252.3955596155</v>
       </c>
       <c r="G126" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3426296.3252265858</v>
       </c>
       <c r="H126" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3665340.2548935567</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4184,24 +4018,19 @@
         <v>47</v>
       </c>
       <c r="D127" s="11">
-        <f t="shared" ref="D127:H127" si="33">+D35*$J$1</f>
-        <v>0</v>
+        <v>2355795.2488918896</v>
       </c>
       <c r="E127" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2563659.5355588212</v>
       </c>
       <c r="F127" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2771523.8222257514</v>
       </c>
       <c r="G127" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2979388.1088926825</v>
       </c>
       <c r="H127" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3187252.3955596155</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4215,24 +4044,19 @@
         <v>47</v>
       </c>
       <c r="D128" s="11">
-        <f t="shared" ref="D128:H128" si="34">+D36*$J$1</f>
-        <v>0</v>
+        <v>2048517.6077320783</v>
       </c>
       <c r="E128" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2229269.1613554964</v>
       </c>
       <c r="F128" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2410020.7149789152</v>
       </c>
       <c r="G128" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2590772.2686023335</v>
       </c>
       <c r="H128" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2771523.8222257514</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4246,24 +4070,19 @@
         <v>47</v>
       </c>
       <c r="D129" s="11">
-        <f t="shared" ref="D129:H129" si="35">+D37*$J$1</f>
-        <v>0</v>
+        <v>1781319.6588974588</v>
       </c>
       <c r="E129" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1938494.9229178228</v>
       </c>
       <c r="F129" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <v>2095670.1869381873</v>
       </c>
       <c r="G129" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <v>2252845.4509585518</v>
       </c>
       <c r="H129" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <v>2410020.7149789152</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4277,24 +4096,19 @@
         <v>47</v>
       </c>
       <c r="D130" s="11">
-        <f t="shared" ref="D130:H130" si="36">+D38*$J$1</f>
-        <v>0</v>
+        <v>2448665.5338608073</v>
       </c>
       <c r="E130" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2664724.2574367612</v>
       </c>
       <c r="F130" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2880782.981012715</v>
       </c>
       <c r="G130" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3096841.7045886675</v>
       </c>
       <c r="H130" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3312900.4281646213</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4308,24 +4122,19 @@
         <v>47</v>
       </c>
       <c r="D131" s="11">
-        <f t="shared" ref="D131:H131" si="37">+D39*$J$1</f>
-        <v>0</v>
+        <v>2129274.3772702673</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2317151.528205879</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2505028.6791414912</v>
       </c>
       <c r="G131" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2692905.8300771029</v>
       </c>
       <c r="H131" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2880782.981012715</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4339,24 +4148,19 @@
         <v>47</v>
       </c>
       <c r="D132" s="11">
-        <f t="shared" ref="D132:H132" si="38">+D40*$J$1</f>
-        <v>0</v>
+        <v>1851542.9367567545</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2014914.3723529386</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2178285.807949123</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2341657.2435453068</v>
       </c>
       <c r="H132" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2505028.6791414912</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4370,24 +4174,19 @@
         <v>47</v>
       </c>
       <c r="D133" s="11">
-        <f t="shared" ref="D133:H133" si="39">+D41*$J$1</f>
-        <v>0</v>
+        <v>1564627.3957291704</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1702682.7541758614</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1840738.1126225535</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1978793.4710692451</v>
       </c>
       <c r="H133" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <v>2116848.8295159359</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4401,24 +4200,19 @@
         <v>47</v>
       </c>
       <c r="D134" s="11">
-        <f t="shared" ref="D134:H134" si="40">+D42*$J$1</f>
-        <v>0</v>
+        <v>1360545.5615036269</v>
       </c>
       <c r="E134" s="11">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1480593.6992833579</v>
       </c>
       <c r="F134" s="11">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1600641.8370630902</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1720689.9748428215</v>
       </c>
       <c r="H134" s="11">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1840738.1126225535</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4432,24 +4226,19 @@
         <v>47</v>
       </c>
       <c r="D135" s="11">
-        <f t="shared" ref="D135:H135" si="41">+D43*$J$1</f>
-        <v>0</v>
+        <v>1183083.096959675</v>
       </c>
       <c r="E135" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1287472.7819855292</v>
       </c>
       <c r="F135" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1391862.4670113826</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1496252.1520372361</v>
       </c>
       <c r="H135" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1600641.8370630902</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4463,24 +4252,19 @@
         <v>47</v>
       </c>
       <c r="D136" s="11">
-        <f t="shared" ref="D136:H136" si="42">+D44*$J$1</f>
-        <v>0</v>
+        <v>2671729.6435504924</v>
       </c>
       <c r="E136" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2907470.4944520053</v>
       </c>
       <c r="F136" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3143211.3453535186</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3378952.1962550324</v>
       </c>
       <c r="H136" s="11">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3614693.0471565453</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4494,24 +4278,19 @@
         <v>47</v>
       </c>
       <c r="D137" s="11">
-        <f t="shared" ref="D137:H137" si="43">+D45*$J$1</f>
-        <v>0</v>
+        <v>2323243.1683047749</v>
       </c>
       <c r="E137" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <v>2528235.2125669611</v>
       </c>
       <c r="F137" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <v>2733227.2568291472</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <v>2938219.3010913329</v>
       </c>
       <c r="H137" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <v>3143211.3453535186</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4525,24 +4304,19 @@
         <v>47</v>
       </c>
       <c r="D138" s="11">
-        <f t="shared" ref="D138:H138" si="44">+D46*$J$1</f>
-        <v>0</v>
+        <v>2020211.4506998048</v>
       </c>
       <c r="E138" s="11">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <v>2198465.4022321408</v>
       </c>
       <c r="F138" s="11">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <v>2376719.3537644758</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <v>2554973.3052968122</v>
       </c>
       <c r="H138" s="11">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <v>2733227.2568291472</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4556,24 +4330,19 @@
         <v>47</v>
       </c>
       <c r="D139" s="11">
-        <f t="shared" ref="D139:H139" si="45">+D47*$J$1</f>
-        <v>0</v>
+        <v>1756705.6093041776</v>
       </c>
       <c r="E139" s="11">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1911709.0454192522</v>
       </c>
       <c r="F139" s="11">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <v>2066712.4815343271</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <v>2221715.9176494014</v>
       </c>
       <c r="H139" s="11">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <v>2376719.3537644758</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4587,24 +4356,19 @@
         <v>47</v>
       </c>
       <c r="D140" s="11">
-        <f t="shared" ref="D140:H140" si="46">+D48*$J$1</f>
-        <v>0</v>
+        <v>1564627.3957291704</v>
       </c>
       <c r="E140" s="11">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1702682.7541758614</v>
       </c>
       <c r="F140" s="11">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1840738.1126225535</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1978793.4710692451</v>
       </c>
       <c r="H140" s="11">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2116848.8295159359</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4618,24 +4382,19 @@
         <v>47</v>
       </c>
       <c r="D141" s="11">
-        <f t="shared" ref="D141:H141" si="47">+D49*$J$1</f>
-        <v>0</v>
+        <v>1360545.5615036269</v>
       </c>
       <c r="E141" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1480593.6992833579</v>
       </c>
       <c r="F141" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1600641.8370630902</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1720689.9748428215</v>
       </c>
       <c r="H141" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1840738.1126225535</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4649,24 +4408,19 @@
         <v>47</v>
       </c>
       <c r="D142" s="11">
-        <f t="shared" ref="D142:H142" si="48">+D50*$J$1</f>
-        <v>0</v>
+        <v>1183083.096959675</v>
       </c>
       <c r="E142" s="11">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1287472.7819855292</v>
       </c>
       <c r="F142" s="11">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1391862.4670113826</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1496252.1520372361</v>
       </c>
       <c r="H142" s="11">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1600641.8370630902</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4680,24 +4434,19 @@
         <v>47</v>
       </c>
       <c r="D143" s="11">
-        <f t="shared" ref="D143:H143" si="49">+D51*$J$1</f>
-        <v>0</v>
+        <v>1272119.7813499658</v>
       </c>
       <c r="E143" s="11">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1384365.6444102568</v>
       </c>
       <c r="F143" s="11">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1496611.5074705479</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1608857.3705308388</v>
       </c>
       <c r="H143" s="11">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1721103.2335911298</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4711,24 +4460,19 @@
         <v>47</v>
       </c>
       <c r="D144" s="11">
-        <f t="shared" ref="D144:H144" si="50">+D52*$J$1</f>
-        <v>0</v>
+        <v>1106191.1142173614</v>
       </c>
       <c r="E144" s="11">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1203796.2125306581</v>
       </c>
       <c r="F144" s="11">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1301401.3108439543</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1399006.409157251</v>
       </c>
       <c r="H144" s="11">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1496611.5074705479</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4742,24 +4486,19 @@
         <v>47</v>
       </c>
       <c r="D145" s="11">
-        <f t="shared" ref="D145:H145" si="51">+D53*$J$1</f>
-        <v>0</v>
+        <v>961905.31671074906</v>
       </c>
       <c r="E145" s="11">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1046779.3152440502</v>
       </c>
       <c r="F145" s="11">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1131653.3137773518</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1216527.312310653</v>
       </c>
       <c r="H145" s="11">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1301401.3108439543</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4773,24 +4512,19 @@
         <v>47</v>
       </c>
       <c r="D146" s="11">
-        <f t="shared" ref="D146:H146" si="52">+D54*$J$1</f>
-        <v>0</v>
+        <v>12631201.51115487</v>
       </c>
       <c r="E146" s="11">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <v>13745720.393030919</v>
       </c>
       <c r="F146" s="11">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <v>14860239.274906971</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <v>15974758.156783026</v>
       </c>
       <c r="H146" s="11">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <v>17089277.038659073</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4804,24 +4538,19 @@
         <v>47</v>
       </c>
       <c r="D147" s="11">
-        <f t="shared" ref="D147:H147" si="53">+D55*$J$1</f>
-        <v>0</v>
+        <v>11310243.084082568</v>
       </c>
       <c r="E147" s="11">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <v>12308205.866502969</v>
       </c>
       <c r="F147" s="11">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <v>13306168.648923367</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <v>14304131.431343766</v>
       </c>
       <c r="H147" s="11">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <v>15302094.213764166</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4835,24 +4564,19 @@
         <v>47</v>
       </c>
       <c r="D148" s="11">
-        <f t="shared" ref="D148:H148" si="54">+D56*$J$1</f>
-        <v>0</v>
+        <v>9989284.6570102666</v>
       </c>
       <c r="E148" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <v>10870691.339975012</v>
       </c>
       <c r="F148" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <v>11752098.022939762</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <v>12633504.705904508</v>
       </c>
       <c r="H148" s="11">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <v>13514911.388869256</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4866,24 +4590,19 @@
         <v>47</v>
       </c>
       <c r="D149" s="11">
-        <f t="shared" ref="D149:H149" si="55">+D57*$J$1</f>
-        <v>0</v>
+        <v>11105055.921442086</v>
       </c>
       <c r="E149" s="11">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <v>12084913.796863444</v>
       </c>
       <c r="F149" s="11">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <v>13064771.672284804</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <v>14044629.547706163</v>
       </c>
       <c r="H149" s="11">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <v>15024487.423127521</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4897,24 +4616,19 @@
         <v>47</v>
       </c>
       <c r="D150" s="11">
-        <f t="shared" ref="D150:H150" si="56">+D58*$J$1</f>
-        <v>0</v>
+        <v>9656570.3664713763</v>
       </c>
       <c r="E150" s="11">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <v>10508620.692924732</v>
       </c>
       <c r="F150" s="11">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <v>11360671.019378088</v>
       </c>
       <c r="G150" s="11">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <v>12212721.34583145</v>
       </c>
       <c r="H150" s="11">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <v>13064771.672284804</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4928,24 +4642,19 @@
         <v>47</v>
       </c>
       <c r="D151" s="11">
-        <f t="shared" ref="D151:H151" si="57">+D59*$J$1</f>
-        <v>0</v>
+        <v>8397017.7099751085</v>
       </c>
       <c r="E151" s="11">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <v>9137931.0373258516</v>
       </c>
       <c r="F151" s="11">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <v>9878844.3646765966</v>
       </c>
       <c r="G151" s="11">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <v>10619757.692027342</v>
       </c>
       <c r="H151" s="11">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <v>11360671.019378087</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4959,24 +4668,19 @@
         <v>47</v>
       </c>
       <c r="D152" s="11">
-        <f t="shared" ref="D152:H152" si="58">+D60*$J$1</f>
-        <v>0</v>
+        <v>9378500.6286048274</v>
       </c>
       <c r="E152" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <v>10206015.389952313</v>
       </c>
       <c r="F152" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <v>11033530.151299799</v>
       </c>
       <c r="G152" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <v>12007076.929355662</v>
       </c>
       <c r="H152" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <v>12980623.707411531</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4990,24 +4694,19 @@
         <v>47</v>
       </c>
       <c r="D153" s="11">
-        <f t="shared" ref="D153:H153" si="59">+D61*$J$1</f>
-        <v>0</v>
+        <v>8144041.9761844091</v>
       </c>
       <c r="E153" s="11">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <v>8862633.9152595028</v>
       </c>
       <c r="F153" s="11">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <v>9581225.8543346003</v>
       </c>
       <c r="G153" s="11">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10299817.793409692</v>
       </c>
       <c r="H153" s="11">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <v>11018409.732484788</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5021,24 +4720,19 @@
         <v>47</v>
       </c>
       <c r="D154" s="11">
-        <f t="shared" ref="D154:H154" si="60">+D62*$J$1</f>
-        <v>0</v>
+        <v>6909584.2489201454</v>
       </c>
       <c r="E154" s="11">
-        <f t="shared" si="60"/>
-        <v>0</v>
+        <v>7519252.9031447712</v>
       </c>
       <c r="F154" s="11">
-        <f t="shared" si="60"/>
-        <v>0</v>
+        <v>8128921.5573693989</v>
       </c>
       <c r="G154" s="11">
-        <f t="shared" si="60"/>
-        <v>0</v>
+        <v>8738590.6741721053</v>
       </c>
       <c r="H154" s="11">
-        <f t="shared" si="60"/>
-        <v>0</v>
+        <v>9348259.7909748089</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5052,24 +4746,19 @@
         <v>47</v>
       </c>
       <c r="D155" s="11">
-        <f t="shared" ref="D155:H155" si="61">+D63*$J$1</f>
-        <v>0</v>
+        <v>6573559.7390333293</v>
       </c>
       <c r="E155" s="11">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <v>7153579.7160068601</v>
       </c>
       <c r="F155" s="11">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <v>7733599.69298039</v>
       </c>
       <c r="G155" s="11">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <v>8313619.6699539144</v>
       </c>
       <c r="H155" s="11">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <v>8893639.6469274461</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5083,24 +4772,19 @@
         <v>47</v>
       </c>
       <c r="D156" s="11">
-        <f t="shared" ref="D156:H156" si="62">+D64*$J$1</f>
-        <v>0</v>
+        <v>5716138.903507242</v>
       </c>
       <c r="E156" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <v>6220504.1008755285</v>
       </c>
       <c r="F156" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <v>6724869.2982438151</v>
       </c>
       <c r="G156" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <v>7229234.4956121007</v>
       </c>
       <c r="H156" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <v>7733599.69298039</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5114,24 +4798,19 @@
         <v>47</v>
       </c>
       <c r="D157" s="11">
-        <f t="shared" ref="D157:H157" si="63">+D65*$J$1</f>
-        <v>0</v>
+        <v>4970555.5682671675</v>
       </c>
       <c r="E157" s="11">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <v>5409134.0007613273</v>
       </c>
       <c r="F157" s="11">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <v>5847712.433255489</v>
       </c>
       <c r="G157" s="11">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <v>6286290.8657496506</v>
       </c>
       <c r="H157" s="11">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <v>6724869.2982438132</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5145,24 +4824,19 @@
         <v>47</v>
       </c>
       <c r="D158" s="11">
-        <f t="shared" ref="D158:H158" si="64">+D66*$J$1</f>
-        <v>0</v>
+        <v>4768868.8428749237</v>
       </c>
       <c r="E158" s="11">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5189651.3878344763</v>
       </c>
       <c r="F158" s="11">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5610433.932794027</v>
       </c>
       <c r="G158" s="11">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <v>6031216.4777535787</v>
       </c>
       <c r="H158" s="11">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <v>6451999.0227131303</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5176,24 +4850,19 @@
         <v>47</v>
       </c>
       <c r="D159" s="11">
-        <f t="shared" ref="D159:H159" si="65">+D67*$J$1</f>
-        <v>0</v>
+        <v>4146842.4720651531</v>
       </c>
       <c r="E159" s="11">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <v>4512740.3372473717</v>
       </c>
       <c r="F159" s="11">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <v>4878638.2024295898</v>
       </c>
       <c r="G159" s="11">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <v>5244536.0676118098</v>
       </c>
       <c r="H159" s="11">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <v>5610433.932794027</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5207,24 +4876,19 @@
         <v>47</v>
       </c>
       <c r="D160" s="11">
-        <f t="shared" ref="D160:H160" si="66">+D68*$J$1</f>
-        <v>0</v>
+        <v>3605949.9757088269</v>
       </c>
       <c r="E160" s="11">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <v>3924122.0323890168</v>
       </c>
       <c r="F160" s="11">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4242294.0890692072</v>
       </c>
       <c r="G160" s="11">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4560466.1457493976</v>
       </c>
       <c r="H160" s="11">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4878638.2024295889</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5238,24 +4902,19 @@
         <v>47</v>
       </c>
       <c r="D161" s="11">
-        <f t="shared" ref="D161:H161" si="67">+D69*$J$1</f>
-        <v>0</v>
+        <v>3359702.1238267515</v>
       </c>
       <c r="E161" s="11">
-        <f t="shared" si="67"/>
-        <v>0</v>
+        <v>3656146.4288702887</v>
       </c>
       <c r="F161" s="11">
-        <f t="shared" si="67"/>
-        <v>0</v>
+        <v>3952590.7339138268</v>
       </c>
       <c r="G161" s="11">
-        <f t="shared" si="67"/>
-        <v>0</v>
+        <v>4249035.038957363</v>
       </c>
       <c r="H161" s="11">
-        <f t="shared" si="67"/>
-        <v>0</v>
+        <v>4545479.3440008992</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5269,24 +4928,19 @@
         <v>47</v>
       </c>
       <c r="D162" s="11">
-        <f t="shared" ref="D162:H162" si="68">+D70*$J$1</f>
-        <v>0</v>
+        <v>2921480.1076754369</v>
       </c>
       <c r="E162" s="11">
-        <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3179257.7642350341</v>
       </c>
       <c r="F162" s="11">
-        <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3437035.4207946318</v>
       </c>
       <c r="G162" s="11">
-        <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3694813.0773542291</v>
       </c>
       <c r="H162" s="11">
-        <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3952590.7339138268</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5300,24 +4954,19 @@
         <v>47</v>
       </c>
       <c r="D163" s="11">
-        <f t="shared" ref="D163:H163" si="69">+D71*$J$1</f>
-        <v>0</v>
+        <v>2540417.4849351612</v>
       </c>
       <c r="E163" s="11">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2764571.9689000286</v>
       </c>
       <c r="F163" s="11">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2988726.4528648956</v>
       </c>
       <c r="G163" s="11">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3212880.936829763</v>
       </c>
       <c r="H163" s="11">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3437035.4207946295</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5331,24 +4980,19 @@
         <v>47</v>
       </c>
       <c r="D164" s="11">
-        <f t="shared" ref="D164:H164" si="70">+D72*$J$1</f>
-        <v>0</v>
+        <v>2514569.0762828151</v>
       </c>
       <c r="E164" s="11">
-        <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2828890.2108181668</v>
       </c>
       <c r="F164" s="11">
-        <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3143211.3453535186</v>
       </c>
       <c r="G164" s="11">
-        <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3378952.1962550324</v>
       </c>
       <c r="H164" s="11">
-        <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3614693.0471565453</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5362,24 +5006,19 @@
         <v>47</v>
       </c>
       <c r="D165" s="11">
-        <f t="shared" ref="D165:H165" si="71">+D73*$J$1</f>
-        <v>0</v>
+        <v>2323243.1683047749</v>
       </c>
       <c r="E165" s="11">
-        <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2528235.2125669611</v>
       </c>
       <c r="F165" s="11">
-        <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2733227.2568291472</v>
       </c>
       <c r="G165" s="11">
-        <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2938219.3010913329</v>
       </c>
       <c r="H165" s="11">
-        <f t="shared" si="71"/>
-        <v>0</v>
+        <v>3143211.3453535186</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5393,24 +5032,19 @@
         <v>47</v>
       </c>
       <c r="D166" s="11">
-        <f t="shared" ref="D166:H166" si="72">+D74*$J$1</f>
-        <v>0</v>
+        <v>2020211.4506998048</v>
       </c>
       <c r="E166" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2198465.4022321408</v>
       </c>
       <c r="F166" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2376719.3537644758</v>
       </c>
       <c r="G166" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2554973.3052968122</v>
       </c>
       <c r="H166" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2733227.2568291472</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5424,24 +5058,19 @@
         <v>47</v>
       </c>
       <c r="D167" s="11">
-        <f t="shared" ref="D167:H167" si="73">+D75*$J$1</f>
-        <v>0</v>
+        <v>1756705.6093041769</v>
       </c>
       <c r="E167" s="11">
-        <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1911709.045419252</v>
       </c>
       <c r="F167" s="11">
-        <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2066712.4815343251</v>
       </c>
       <c r="G167" s="11">
-        <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2221715.9176494009</v>
       </c>
       <c r="H167" s="11">
-        <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2376719.3537644744</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5455,24 +5084,19 @@
         <v>47</v>
       </c>
       <c r="D168" s="11">
-        <f t="shared" ref="D168:H168" si="74">+D76*$J$1</f>
-        <v>0</v>
+        <v>1564627.3957291704</v>
       </c>
       <c r="E168" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1702682.7541758614</v>
       </c>
       <c r="F168" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1840738.1126225535</v>
       </c>
       <c r="G168" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1978793.4710692451</v>
       </c>
       <c r="H168" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <v>2116848.8295159359</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5486,24 +5110,19 @@
         <v>47</v>
       </c>
       <c r="D169" s="11">
-        <f t="shared" ref="D169:H169" si="75">+D77*$J$1</f>
-        <v>0</v>
+        <v>1360545.5615036269</v>
       </c>
       <c r="E169" s="11">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1480593.6992833579</v>
       </c>
       <c r="F169" s="11">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1600641.8370630902</v>
       </c>
       <c r="G169" s="11">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1720689.9748428215</v>
       </c>
       <c r="H169" s="11">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1840738.1126225535</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5517,24 +5136,19 @@
         <v>47</v>
       </c>
       <c r="D170" s="11">
-        <f t="shared" ref="D170:H170" si="76">+D78*$J$1</f>
-        <v>0</v>
+        <v>1183083.0969596747</v>
       </c>
       <c r="E170" s="11">
-        <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1287472.7819855283</v>
       </c>
       <c r="F170" s="11">
-        <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1391862.4670113823</v>
       </c>
       <c r="G170" s="11">
-        <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1496252.1520372357</v>
       </c>
       <c r="H170" s="11">
-        <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1600641.837063089</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5548,24 +5162,19 @@
         <v>47</v>
       </c>
       <c r="D171" s="11">
-        <f t="shared" ref="D171:H171" si="77">+D79*$J$1</f>
-        <v>0</v>
+        <v>1294940.205685904</v>
       </c>
       <c r="E171" s="11">
-        <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1409199.6355993659</v>
       </c>
       <c r="F171" s="11">
-        <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1523459.0655128274</v>
       </c>
       <c r="G171" s="11">
-        <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1637718.4954262897</v>
       </c>
       <c r="H171" s="11">
-        <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1751977.9253397519</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5579,24 +5188,19 @@
         <v>47</v>
       </c>
       <c r="D172" s="11">
-        <f t="shared" ref="D172:H172" si="78">+D80*$J$1</f>
-        <v>0</v>
+        <v>1126034.9614660032</v>
       </c>
       <c r="E172" s="11">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1225390.9874777095</v>
       </c>
       <c r="F172" s="11">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1324747.0134894154</v>
       </c>
       <c r="G172" s="11">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1424103.0395011217</v>
       </c>
       <c r="H172" s="11">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1523459.0655128274</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5610,24 +5214,19 @@
         <v>47</v>
       </c>
       <c r="D173" s="11">
-        <f t="shared" ref="D173:H173" si="79">+D81*$J$1</f>
-        <v>0</v>
+        <v>979160.8360573937</v>
       </c>
       <c r="E173" s="11">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1065557.3804153991</v>
       </c>
       <c r="F173" s="11">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1151953.9247734044</v>
       </c>
       <c r="G173" s="11">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1238350.4691314097</v>
       </c>
       <c r="H173" s="11">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1324747.0134894149</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5641,24 +5240,19 @@
         <v>47</v>
       </c>
       <c r="D174" s="11">
-        <f t="shared" ref="D174:H174" si="80">+D82*$J$1</f>
-        <v>0</v>
+        <v>1259508.5082982946</v>
       </c>
       <c r="E174" s="11">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1370641.6119716738</v>
       </c>
       <c r="F174" s="11">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1481774.7156450534</v>
       </c>
       <c r="G174" s="11">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1592907.8193184314</v>
       </c>
       <c r="H174" s="11">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1704040.9229918104</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5672,24 +5266,19 @@
         <v>47</v>
       </c>
       <c r="D175" s="11">
-        <f t="shared" ref="D175:H175" si="81">+D83*$J$1</f>
-        <v>0</v>
+        <v>1095224.7898246043</v>
       </c>
       <c r="E175" s="11">
-        <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1191862.2712797166</v>
       </c>
       <c r="F175" s="11">
-        <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1288499.7527348287</v>
       </c>
       <c r="G175" s="11">
-        <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1385137.2341899404</v>
       </c>
       <c r="H175" s="11">
-        <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1481774.7156450534</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5703,24 +5292,19 @@
         <v>47</v>
       </c>
       <c r="D176" s="11">
-        <f t="shared" ref="D176:H176" si="82">+D84*$J$1</f>
-        <v>0</v>
+        <v>952369.38245617715</v>
       </c>
       <c r="E176" s="11">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1036401.9750258402</v>
       </c>
       <c r="F176" s="11">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1120434.5675955026</v>
       </c>
       <c r="G176" s="11">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1204467.1601651653</v>
       </c>
       <c r="H176" s="11">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1288499.7527348278</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5734,24 +5318,19 @@
         <v>47</v>
       </c>
       <c r="D177" s="11">
-        <f t="shared" ref="D177:H177" si="83">+D85*$J$1</f>
-        <v>0</v>
+        <v>1000190.6138280603</v>
       </c>
       <c r="E177" s="11">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1088442.7268128893</v>
       </c>
       <c r="F177" s="11">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1176694.8397977185</v>
       </c>
       <c r="G177" s="11">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1264946.9527825471</v>
       </c>
       <c r="H177" s="11">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1353199.0657673758</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5765,24 +5344,19 @@
         <v>47</v>
       </c>
       <c r="D178" s="11">
-        <f t="shared" ref="D178:H178" si="84">+D86*$J$1</f>
-        <v>0</v>
+        <v>869730.96854613943</v>
       </c>
       <c r="E178" s="11">
-        <f t="shared" si="84"/>
-        <v>0</v>
+        <v>946471.93635903404</v>
       </c>
       <c r="F178" s="11">
-        <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1023212.9041719288</v>
       </c>
       <c r="G178" s="11">
-        <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1099953.8719848236</v>
       </c>
       <c r="H178" s="11">
-        <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1176694.8397977185</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5796,24 +5370,19 @@
         <v>47</v>
       </c>
       <c r="D179" s="11">
-        <f t="shared" ref="D179:H179" si="85">+D87*$J$1</f>
-        <v>0</v>
+        <v>756287.79873577307</v>
       </c>
       <c r="E179" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <v>823019.07509481173</v>
       </c>
       <c r="F179" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <v>889750.35145385086</v>
       </c>
       <c r="G179" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <v>956481.62781288952</v>
       </c>
       <c r="H179" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <v>1023212.9041719285</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5827,24 +5396,19 @@
         <v>47</v>
       </c>
       <c r="D180" s="11">
-        <f t="shared" ref="D180:H180" si="86">+D88*$J$1</f>
-        <v>0</v>
+        <v>1992724.6925443504</v>
       </c>
       <c r="E180" s="11">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2168553.341886498</v>
       </c>
       <c r="F180" s="11">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2344381.9912286466</v>
       </c>
       <c r="G180" s="11">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2520210.6405707956</v>
       </c>
       <c r="H180" s="11">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2696039.2899129428</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5858,24 +5422,19 @@
         <v>47</v>
       </c>
       <c r="D181" s="11">
-        <f t="shared" ref="D181:H181" si="87">+D89*$J$1</f>
-        <v>0</v>
+        <v>1732804.0804733473</v>
       </c>
       <c r="E181" s="11">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1885698.558162173</v>
       </c>
       <c r="F181" s="11">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2038593.0358509971</v>
       </c>
       <c r="G181" s="11">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2191487.5135398214</v>
       </c>
       <c r="H181" s="11">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2344381.9912286466</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5889,24 +5448,19 @@
         <v>47</v>
       </c>
       <c r="D182" s="11">
-        <f t="shared" ref="D182:H182" si="88">+D90*$J$1</f>
-        <v>0</v>
+        <v>1506786.1569333456</v>
       </c>
       <c r="E182" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <v>1639737.8766627577</v>
       </c>
       <c r="F182" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <v>1772689.5963921712</v>
       </c>
       <c r="G182" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <v>1905641.3161215831</v>
       </c>
       <c r="H182" s="11">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2038593.0358509962</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5920,24 +5474,19 @@
         <v>47</v>
       </c>
       <c r="D183" s="11">
-        <f t="shared" ref="D183:H183" si="89">+D91*$J$1</f>
-        <v>0</v>
+        <v>1526763.1250193834</v>
       </c>
       <c r="E183" s="11">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1661477.5184034463</v>
       </c>
       <c r="F183" s="11">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1796191.9117875097</v>
       </c>
       <c r="G183" s="11">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1930906.3051715731</v>
       </c>
       <c r="H183" s="11">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <v>2065620.6985556351</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5951,24 +5500,19 @@
         <v>47</v>
       </c>
       <c r="D184" s="11">
-        <f t="shared" ref="D184:H184" si="90">+D92*$J$1</f>
-        <v>0</v>
+        <v>1327620.1087125074</v>
       </c>
       <c r="E184" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1444763.059481258</v>
       </c>
       <c r="F184" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1561906.0102500084</v>
       </c>
       <c r="G184" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1679048.9610187591</v>
       </c>
       <c r="H184" s="11">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1796191.9117875097</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5982,24 +5526,19 @@
         <v>47</v>
       </c>
       <c r="D185" s="11">
-        <f t="shared" ref="D185:H185" si="91">+D93*$J$1</f>
-        <v>0</v>
+        <v>1086543.311478266</v>
       </c>
       <c r="E185" s="11">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1222361.2254130498</v>
       </c>
       <c r="F185" s="11">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1358179.1393478331</v>
       </c>
       <c r="G185" s="11">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1460042.57479892</v>
       </c>
       <c r="H185" s="11">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1561906.0102500073</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
